--- a/assets/sheets/LDLSolutions.xlsx
+++ b/assets/sheets/LDLSolutions.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurennelsen/Dropbox/UCCS/Teaching/QUAN 2010/PreTeXt files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C5A6178-3350-3240-ACC5-866AA90E6B87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7641EAF9-42DE-D043-8E92-737A90B49DF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5100" yWindow="5820" windowWidth="24040" windowHeight="12440" xr2:uid="{1B8E5672-5485-CB44-8600-4B6F0CA43ABA}"/>
+    <workbookView xWindow="2120" yWindow="2700" windowWidth="27020" windowHeight="15560" xr2:uid="{1B8E5672-5485-CB44-8600-4B6F0CA43ABA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -718,8 +718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DFF5610-2530-BA48-B95B-3D090F20527D}">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection sqref="A1:K24"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1036,8 +1036,8 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <f>_xlfn.T.INV.2T(0.1,12)</f>
-        <v>1.7822875556493194</v>
+        <f>_xlfn.T.INV.2T(0.1,12-1)</f>
+        <v>1.7958848187040437</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>26</v>
@@ -1090,7 +1090,7 @@
       </c>
       <c r="B21">
         <f>B17*B18/SQRT(B19)</f>
-        <v>7.5247847660172429</v>
+        <v>7.5821921566312911</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -1099,7 +1099,7 @@
       </c>
       <c r="B22">
         <f>B16-B21</f>
-        <v>62.39188190064943</v>
+        <v>62.334474510035378</v>
       </c>
       <c r="F22" t="s">
         <v>34</v>
@@ -1111,7 +1111,7 @@
       </c>
       <c r="B23">
         <f>B16+B21</f>
-        <v>77.44145143268392</v>
+        <v>77.498858823297965</v>
       </c>
       <c r="F23" t="s">
         <v>36</v>
